--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -512,7 +512,7 @@
         <v>2422342</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999998</v>
+        <v>3361214</v>
       </c>
       <c r="D2" t="n">
         <v>2986643</v>
@@ -521,7 +521,7 @@
         <v>4085710</v>
       </c>
       <c r="F2" t="n">
-        <v>3161596</v>
+        <v>3156535.966000002</v>
       </c>
       <c r="G2" t="n">
         <v>2422341.999999997</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999999</v>
+        <v>834664</v>
       </c>
       <c r="I3" t="n">
         <v>785107</v>
       </c>
       <c r="J3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999994</v>
+        <v>834664</v>
       </c>
       <c r="L3" t="n">
         <v>601525</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999999</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>957700.0149999997</v>
+        <v>961207.4349999997</v>
       </c>
       <c r="O4" t="n">
         <v>1318519</v>
@@ -684,7 +684,7 @@
         <v>1020294.999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>775818.5980000001</v>
+        <v>777505.5700000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>749950.9999999992</v>
+        <v>749951</v>
       </c>
       <c r="S5" t="n">
-        <v>844006.9999999995</v>
+        <v>844006.9999999994</v>
       </c>
       <c r="T5" t="n">
         <v>793886</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608255.0000000001</v>
       </c>
     </row>
   </sheetData>
@@ -850,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3000237.138</v>
+        <v>3011144.322400002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>709711.4420000002</v>
       </c>
       <c r="J3" t="n">
-        <v>567411.2559999996</v>
+        <v>498157.1970000003</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>781335.2459999999</v>
+        <v>885622.5339999875</v>
       </c>
       <c r="O4" t="n">
-        <v>1173650.137400004</v>
+        <v>1234408.736000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>606165.4472000002</v>
+        <v>656324.7480000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>635357.639999987</v>
+        <v>612438.9680000009</v>
       </c>
       <c r="S5" t="n">
-        <v>737600.5795999985</v>
+        <v>686782.914799998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -1191,22 +1191,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999988</v>
+        <v>2422341.999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999953</v>
+        <v>3361213.99999997</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999989</v>
+        <v>2986642.999999985</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999972</v>
       </c>
       <c r="F2" t="n">
-        <v>3151363.486800001</v>
+        <v>3140681.192800004</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999985</v>
+        <v>2422341.999999993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999981</v>
+        <v>834663.9999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999994</v>
+        <v>784886.6372000002</v>
       </c>
       <c r="J3" t="n">
-        <v>601430.2395999996</v>
+        <v>600972.2310000005</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999981</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999994</v>
+        <v>1084703.999999997</v>
       </c>
       <c r="N4" t="n">
-        <v>938467.662</v>
+        <v>952964.9979999968</v>
       </c>
       <c r="O4" t="n">
-        <v>1317744.300200002</v>
+        <v>1317356.950300001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999993</v>
+        <v>1020294.999999978</v>
       </c>
       <c r="Q4" t="n">
-        <v>757318.1384000002</v>
+        <v>764290.9560000006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>742684.1039999975</v>
+        <v>741230.7248000009</v>
       </c>
       <c r="S5" t="n">
-        <v>842009.7991999985</v>
+        <v>835740.8077999981</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999985</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999958</v>
       </c>
     </row>
   </sheetData>
@@ -1532,22 +1532,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999964</v>
+        <v>2422341.999999978</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999453</v>
+        <v>3361213.99999989</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999963</v>
+        <v>2986642.999999966</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710.000000001</v>
+        <v>4085709.999999744</v>
       </c>
       <c r="F2" t="n">
-        <v>3132472.6932</v>
+        <v>3124489.084000003</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999963</v>
+        <v>2422341.999999957</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>778464.6356</v>
       </c>
       <c r="J3" t="n">
-        <v>599155.9899999995</v>
+        <v>591022.3890000005</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>918826.1099999998</v>
+        <v>944547.1899999877</v>
       </c>
       <c r="O4" t="n">
-        <v>1303799.703800003</v>
+        <v>1308779.916800001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>738424.052</v>
+        <v>750795.1800000006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>729268.2959999965</v>
+        <v>725131.7552000009</v>
       </c>
       <c r="S5" t="n">
-        <v>830803.2835999988</v>
+        <v>817266.7003999981</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999696</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999992</v>
+        <v>2986642.999999946</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710.000000002</v>
+        <v>4085709.999999432</v>
       </c>
       <c r="F2" t="n">
-        <v>3113581.8996</v>
+        <v>3108296.975200003</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>768642.7508</v>
       </c>
       <c r="J3" t="n">
-        <v>594702.2511999995</v>
+        <v>577755.9330000005</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>899184.5579999998</v>
+        <v>936129.3819999876</v>
       </c>
       <c r="O4" t="n">
-        <v>1285206.908600004</v>
+        <v>1298155.462400001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>719529.9656000002</v>
+        <v>737299.4040000002</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>715852.4879999954</v>
+        <v>709032.785600001</v>
       </c>
       <c r="S5" t="n">
-        <v>817488.6115999987</v>
+        <v>798626.159599998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -2214,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3094691.105999999</v>
+        <v>3092104.866400002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2297,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>758820.8659999999</v>
       </c>
       <c r="J3" t="n">
-        <v>590153.7519999995</v>
+        <v>564489.4770000008</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2377,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>879543.0060000001</v>
+        <v>927711.5739999874</v>
       </c>
       <c r="O4" t="n">
-        <v>1266614.113400004</v>
+        <v>1287531.008000002</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>700635.8792000002</v>
+        <v>723803.6280000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>702436.6799999954</v>
+        <v>692933.8160000009</v>
       </c>
       <c r="S5" t="n">
-        <v>804173.9395999986</v>
+        <v>779985.6187999981</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -2555,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3075800.3124</v>
+        <v>3075912.757600003</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>748998.9811999999</v>
       </c>
       <c r="J3" t="n">
-        <v>585605.2527999996</v>
+        <v>551223.0210000006</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>859901.4539999998</v>
+        <v>919293.7659999876</v>
       </c>
       <c r="O4" t="n">
-        <v>1248021.318200003</v>
+        <v>1276906.553600001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>681741.7928000001</v>
+        <v>710307.8520000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>689020.8719999922</v>
+        <v>676834.846400001</v>
       </c>
       <c r="S5" t="n">
-        <v>790859.2675999985</v>
+        <v>761345.077999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3056909.5188</v>
+        <v>3059720.648800002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2979,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>739177.0964</v>
       </c>
       <c r="J3" t="n">
-        <v>581056.7535999995</v>
+        <v>537956.5650000005</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>840259.9019999999</v>
+        <v>910875.9579999875</v>
       </c>
       <c r="O4" t="n">
-        <v>1229428.523000003</v>
+        <v>1266282.099200001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>662847.7064000001</v>
+        <v>696812.0760000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>675605.0639999887</v>
+        <v>660735.8768000009</v>
       </c>
       <c r="S5" t="n">
-        <v>777544.5955999986</v>
+        <v>742704.5371999982</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -3237,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3038018.7252</v>
+        <v>3043528.540000002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>729355.2116</v>
       </c>
       <c r="J3" t="n">
-        <v>576508.2543999995</v>
+        <v>524690.1090000004</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>820618.3499999996</v>
+        <v>902458.1499999873</v>
       </c>
       <c r="O4" t="n">
-        <v>1210835.727800003</v>
+        <v>1255657.644800002</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>643953.62</v>
+        <v>683316.3000000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>662189.2559999888</v>
+        <v>644636.9072000009</v>
       </c>
       <c r="S5" t="n">
-        <v>764229.9235999986</v>
+        <v>724063.9963999982</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>
@@ -3578,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999958</v>
+        <v>2422341.999999969</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999047</v>
+        <v>3361213.999999508</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999903</v>
+        <v>2986642.99999994</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999406</v>
       </c>
       <c r="F2" t="n">
-        <v>3019127.931599999</v>
+        <v>3027336.431200003</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999996</v>
+        <v>2422341.999999933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999972</v>
+        <v>834663.9999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>785106.9999999992</v>
+        <v>719533.3267999999</v>
       </c>
       <c r="J3" t="n">
-        <v>571959.7551999995</v>
+        <v>511423.6530000002</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999971</v>
+        <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.99999999</v>
       </c>
       <c r="N4" t="n">
-        <v>800976.798</v>
+        <v>894040.3419999875</v>
       </c>
       <c r="O4" t="n">
-        <v>1192242.932600004</v>
+        <v>1245033.190400002</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999989</v>
+        <v>1020294.999999961</v>
       </c>
       <c r="Q4" t="n">
-        <v>625059.5336000003</v>
+        <v>669820.5240000007</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>648773.4479999888</v>
+        <v>628537.937600001</v>
       </c>
       <c r="S5" t="n">
-        <v>750915.2515999987</v>
+        <v>705423.4555999981</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999983</v>
+        <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608254.9999999945</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -518,13 +518,13 @@
         <v>2986643</v>
       </c>
       <c r="E2" t="n">
-        <v>4085710</v>
+        <v>4085709.999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>3156535.966000002</v>
+        <v>3157379.305</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999997</v>
+        <v>2422341.999999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>785107</v>
       </c>
       <c r="J3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525</v>
       </c>
       <c r="K3" t="n">
         <v>834664</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084704</v>
+        <v>1084703.999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>961207.4349999997</v>
+        <v>959453.7249999997</v>
       </c>
       <c r="O4" t="n">
         <v>1318519</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999999</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>777505.5700000003</v>
+        <v>778349.0560000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>749951</v>
+        <v>749950.9999999994</v>
       </c>
       <c r="S5" t="n">
-        <v>844006.9999999994</v>
+        <v>844007</v>
       </c>
       <c r="T5" t="n">
         <v>793886</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000001</v>
+        <v>608255</v>
       </c>
     </row>
   </sheetData>
@@ -850,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3011144.322400002</v>
+        <v>3013168.336000007</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664</v>
       </c>
       <c r="I3" t="n">
-        <v>709711.4420000002</v>
+        <v>785107</v>
       </c>
       <c r="J3" t="n">
-        <v>498157.1970000003</v>
+        <v>500447.24</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000003</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>885622.5339999875</v>
+        <v>833478.8899999944</v>
       </c>
       <c r="O4" t="n">
-        <v>1234408.736000001</v>
+        <v>1176606.64479999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>656324.7480000005</v>
+        <v>681404.3984000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>612438.9680000009</v>
+        <v>612438.9679999937</v>
       </c>
       <c r="S5" t="n">
-        <v>686782.914799998</v>
+        <v>688114.3819999994</v>
       </c>
       <c r="T5" t="n">
         <v>793886</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608254.9999999325</v>
       </c>
     </row>
   </sheetData>
@@ -1191,19 +1191,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999998</v>
+        <v>2422341.999999985</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.99999997</v>
+        <v>3361213.999999973</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999985</v>
+        <v>2986642.999999968</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999972</v>
+        <v>4085709.999999983</v>
       </c>
       <c r="F2" t="n">
-        <v>3140681.192800004</v>
+        <v>3142705.206400006</v>
       </c>
       <c r="G2" t="n">
         <v>2422341.999999993</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999999</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>784886.6372000002</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>600972.2310000005</v>
+        <v>599756.1392000002</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000008</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999997</v>
+        <v>1084703.999999991</v>
       </c>
       <c r="N4" t="n">
-        <v>952964.9979999968</v>
+        <v>945716.3299999991</v>
       </c>
       <c r="O4" t="n">
-        <v>1317356.950300001</v>
+        <v>1317760.110399991</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999978</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>764290.9560000006</v>
+        <v>767777.3648000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>741230.7248000009</v>
+        <v>741230.7247999934</v>
       </c>
       <c r="S5" t="n">
-        <v>835740.8077999981</v>
+        <v>836462.0191999995</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999958</v>
+        <v>608255.0000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1532,22 +1532,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999978</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.99999989</v>
+        <v>3361213.999999834</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999966</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999744</v>
+        <v>4085709.999999937</v>
       </c>
       <c r="F2" t="n">
-        <v>3124489.084000003</v>
+        <v>3126513.097600007</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999957</v>
+        <v>2422341.999999946</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>778464.6356</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>591022.3890000005</v>
+        <v>590564.3804000003</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>944547.1899999877</v>
+        <v>931686.6499999989</v>
       </c>
       <c r="O4" t="n">
-        <v>1308779.916800001</v>
+        <v>1304100.09759999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>750795.1800000006</v>
+        <v>756980.7440000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>725131.7552000009</v>
+        <v>725131.7551999935</v>
       </c>
       <c r="S5" t="n">
-        <v>817266.7003999981</v>
+        <v>818598.1675999995</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999696</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999946</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999432</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3108296.975200003</v>
+        <v>3110320.988800007</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>768642.7508</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>577755.9330000005</v>
+        <v>577771.7264000004</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>936129.3819999876</v>
+        <v>917656.969999998</v>
       </c>
       <c r="O4" t="n">
-        <v>1298155.462400001</v>
+        <v>1285886.74719999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>737299.4040000002</v>
+        <v>746184.1232000006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>709032.785600001</v>
+        <v>709032.7855999935</v>
       </c>
       <c r="S5" t="n">
-        <v>798626.159599998</v>
+        <v>799957.6267999994</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2214,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3092104.866400002</v>
+        <v>3094128.880000007</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2297,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>758820.8659999999</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>564489.4770000008</v>
+        <v>564884.3120000003</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2377,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>927711.5739999874</v>
+        <v>903627.2899999982</v>
       </c>
       <c r="O4" t="n">
-        <v>1287531.008000002</v>
+        <v>1267673.39679999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>723803.6280000004</v>
+        <v>735387.5024000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>692933.8160000009</v>
+        <v>692933.8159999935</v>
       </c>
       <c r="S5" t="n">
-        <v>779985.6187999981</v>
+        <v>781317.0859999995</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2555,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3075912.757600003</v>
+        <v>3077936.771200006</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>748998.9811999999</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>551223.0210000006</v>
+        <v>551996.8976000003</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>919293.7659999876</v>
+        <v>889597.6099999971</v>
       </c>
       <c r="O4" t="n">
-        <v>1276906.553600001</v>
+        <v>1249460.04639999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>710307.8520000004</v>
+        <v>724590.8816000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>676834.846400001</v>
+        <v>676834.8463999935</v>
       </c>
       <c r="S5" t="n">
-        <v>761345.077999998</v>
+        <v>762676.5451999996</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000016</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3059720.648800002</v>
+        <v>3061744.662400007</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2979,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>739177.0964</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>537956.5650000005</v>
+        <v>539109.4832000001</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>910875.9579999875</v>
+        <v>875567.9299999963</v>
       </c>
       <c r="O4" t="n">
-        <v>1266282.099200001</v>
+        <v>1231246.69599999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>696812.0760000004</v>
+        <v>713794.2608000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>660735.8768000009</v>
+        <v>660735.8767999934</v>
       </c>
       <c r="S5" t="n">
-        <v>742704.5371999982</v>
+        <v>744036.0043999995</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000019</v>
       </c>
     </row>
   </sheetData>
@@ -3237,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3043528.540000002</v>
+        <v>3045552.553600006</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>729355.2116</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>524690.1090000004</v>
+        <v>526222.0688000001</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>902458.1499999873</v>
+        <v>861538.2499999962</v>
       </c>
       <c r="O4" t="n">
-        <v>1255657.644800002</v>
+        <v>1213033.34559999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>683316.3000000005</v>
+        <v>702997.6400000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>644636.9072000009</v>
+        <v>644636.9071999936</v>
       </c>
       <c r="S5" t="n">
-        <v>724063.9963999982</v>
+        <v>725395.4635999994</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000019</v>
       </c>
     </row>
   </sheetData>
@@ -3578,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999969</v>
+        <v>2422341.999999982</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999508</v>
+        <v>3361213.999999799</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.99999994</v>
+        <v>2986642.999999955</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999406</v>
+        <v>4085709.999999928</v>
       </c>
       <c r="F2" t="n">
-        <v>3027336.431200003</v>
+        <v>3029360.444800008</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999933</v>
+        <v>2422341.999999937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999997</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>719533.3267999999</v>
+        <v>785107.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>511423.6530000002</v>
+        <v>513334.6543999999</v>
       </c>
       <c r="K3" t="n">
         <v>834664.0000000009</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000001</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.99999999</v>
+        <v>1084703.999999973</v>
       </c>
       <c r="N4" t="n">
-        <v>894040.3419999875</v>
+        <v>847508.5699999962</v>
       </c>
       <c r="O4" t="n">
-        <v>1245033.190400002</v>
+        <v>1194819.99519999</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999961</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>669820.5240000007</v>
+        <v>692201.0192000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>628537.937600001</v>
+        <v>628537.9375999935</v>
       </c>
       <c r="S5" t="n">
-        <v>705423.4555999981</v>
+        <v>706754.9227999995</v>
       </c>
       <c r="T5" t="n">
         <v>793886.0000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999945</v>
+        <v>608255.0000000019</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -518,13 +518,13 @@
         <v>2986643</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999998</v>
+        <v>4085710</v>
       </c>
       <c r="F2" t="n">
-        <v>3157379.305</v>
+        <v>3159065.983000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999996</v>
+        <v>2422341.99999994</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664</v>
+        <v>834663.9999999995</v>
       </c>
       <c r="I3" t="n">
         <v>785107</v>
       </c>
       <c r="J3" t="n">
+        <v>601524.9999999991</v>
+      </c>
+      <c r="K3" t="n">
+        <v>834663.9999999957</v>
+      </c>
+      <c r="L3" t="n">
         <v>601525</v>
-      </c>
-      <c r="K3" t="n">
-        <v>834664</v>
-      </c>
-      <c r="L3" t="n">
-        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999999</v>
+        <v>1084703.999999995</v>
       </c>
       <c r="N4" t="n">
-        <v>959453.7249999997</v>
+        <v>960330.5800000004</v>
       </c>
       <c r="O4" t="n">
-        <v>1318519</v>
+        <v>1318518.999999993</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>778349.0560000003</v>
+        <v>781722.9999999941</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>749950.9999999994</v>
+        <v>744920.072</v>
       </c>
       <c r="S5" t="n">
-        <v>844007</v>
+        <v>843174.8330000001</v>
       </c>
       <c r="T5" t="n">
-        <v>793886</v>
+        <v>793885.9999999939</v>
       </c>
       <c r="U5" t="n">
         <v>608255</v>
@@ -850,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2363466.0598</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3271162.584000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2889680.134</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>3891558.083999997</v>
       </c>
       <c r="F2" t="n">
-        <v>3013168.336000007</v>
+        <v>3063318.895200001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2292749.94579981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107</v>
+        <v>785107.0000000003</v>
       </c>
       <c r="J3" t="n">
-        <v>500447.24</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000003</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000003</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>833478.8899999944</v>
+        <v>859550.7120000009</v>
       </c>
       <c r="O4" t="n">
-        <v>1176606.64479999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>681404.3984000003</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>612438.9679999937</v>
+        <v>600364.7408000004</v>
       </c>
       <c r="S5" t="n">
-        <v>688114.3819999994</v>
+        <v>819263.9011999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793886</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608254.9999999325</v>
+        <v>608255.0000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1191,22 +1191,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999985</v>
+        <v>2422027.1554</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999973</v>
+        <v>3355503.422400003</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999968</v>
+        <v>2986124.482</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999983</v>
+        <v>4074629.237999998</v>
       </c>
       <c r="F2" t="n">
-        <v>3142705.206400006</v>
+        <v>3149676.808800001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999993</v>
+        <v>2421932.86959981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999999655</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>599756.1392000002</v>
+        <v>601524.9999999707</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999627</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000008</v>
+        <v>601524.9999999813</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999991</v>
+        <v>1084703.999999929</v>
       </c>
       <c r="N4" t="n">
-        <v>945716.3299999991</v>
+        <v>949340.6640000012</v>
       </c>
       <c r="O4" t="n">
-        <v>1317760.110399991</v>
+        <v>1318518.999999912</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.999999939</v>
       </c>
       <c r="Q4" t="n">
-        <v>767777.3648000004</v>
+        <v>781722.9999999151</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>741230.7247999934</v>
+        <v>729156.4976000002</v>
       </c>
       <c r="S5" t="n">
-        <v>836462.0191999995</v>
+        <v>840567.3764000003</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999925</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000003</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1532,22 +1532,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2416359.9526</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999834</v>
+        <v>3344960.817600002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2976791.158</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999937</v>
+        <v>4051884.515999997</v>
       </c>
       <c r="F2" t="n">
-        <v>3126513.097600007</v>
+        <v>3138882.069600001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999946</v>
+        <v>2412676.29429981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>590564.3804000003</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>931686.6499999989</v>
+        <v>938116.9200000012</v>
       </c>
       <c r="O4" t="n">
-        <v>1304100.09759999</v>
+        <v>1318518.999999753</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>756980.7440000004</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>725131.7551999935</v>
+        <v>713057.5280000003</v>
       </c>
       <c r="S5" t="n">
-        <v>818598.1675999995</v>
+        <v>837904.4419999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000007</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2408803.682200001</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3334418.212800002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2964346.726</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>4028980.739999997</v>
       </c>
       <c r="F2" t="n">
-        <v>3110320.988800007</v>
+        <v>3128087.330400001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2395850.806599809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>577771.7264000004</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>917656.969999998</v>
+        <v>926893.176000001</v>
       </c>
       <c r="O4" t="n">
-        <v>1285886.74719999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>746184.1232000006</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>709032.7855999935</v>
+        <v>696958.5584000003</v>
       </c>
       <c r="S5" t="n">
-        <v>799957.6267999994</v>
+        <v>835241.5076</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000009</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2214,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2401247.4118</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3323875.608000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2951902.294</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>4006076.963999998</v>
       </c>
       <c r="F2" t="n">
-        <v>3094128.880000007</v>
+        <v>3117292.591200002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2378667.32979981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2297,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>564884.3120000003</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2377,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>903627.2899999982</v>
+        <v>915669.4320000008</v>
       </c>
       <c r="O4" t="n">
-        <v>1267673.39679999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>735387.5024000005</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>692933.8159999935</v>
+        <v>680859.5888000003</v>
       </c>
       <c r="S5" t="n">
-        <v>781317.0859999995</v>
+        <v>832578.5731999999</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000009</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2555,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2393691.1414</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3313333.003200002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2939457.862</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>3983173.187999998</v>
       </c>
       <c r="F2" t="n">
-        <v>3077936.771200006</v>
+        <v>3106497.852000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2361483.85299981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>551996.8976000003</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>889597.6099999971</v>
+        <v>904445.6880000009</v>
       </c>
       <c r="O4" t="n">
-        <v>1249460.04639999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>724590.8816000003</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>676834.8463999935</v>
+        <v>664760.6192000003</v>
       </c>
       <c r="S5" t="n">
-        <v>762676.5451999996</v>
+        <v>829915.6387999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000016</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2386134.871</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3302790.398400002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2927013.43</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>3960269.411999997</v>
       </c>
       <c r="F2" t="n">
-        <v>3061744.662400007</v>
+        <v>3095703.112800002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2344300.37619981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2979,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>539109.4832000001</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>875567.9299999963</v>
+        <v>893221.9440000007</v>
       </c>
       <c r="O4" t="n">
-        <v>1231246.69599999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>713794.2608000003</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>660735.8767999934</v>
+        <v>648661.6496000004</v>
       </c>
       <c r="S5" t="n">
-        <v>744036.0043999995</v>
+        <v>827252.7044</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000019</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3237,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2378578.6006</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3292247.793600002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2914568.998</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>3937365.635999998</v>
       </c>
       <c r="F2" t="n">
-        <v>3045552.553600006</v>
+        <v>3084908.373600001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2327116.89939981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>526222.0688000001</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>861538.2499999962</v>
+        <v>881998.2000000008</v>
       </c>
       <c r="O4" t="n">
-        <v>1213033.34559999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>702997.6400000005</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>644636.9071999936</v>
+        <v>632562.6800000003</v>
       </c>
       <c r="S5" t="n">
-        <v>725395.4635999994</v>
+        <v>824589.7699999999</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000019</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3578,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422341.999999982</v>
+        <v>2371022.3302</v>
       </c>
       <c r="C2" t="n">
-        <v>3361213.999999799</v>
+        <v>3281705.188800002</v>
       </c>
       <c r="D2" t="n">
-        <v>2986642.999999955</v>
+        <v>2902124.566</v>
       </c>
       <c r="E2" t="n">
-        <v>4085709.999999928</v>
+        <v>3914461.859999996</v>
       </c>
       <c r="F2" t="n">
-        <v>3029360.444800008</v>
+        <v>3074113.634400002</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.999999937</v>
+        <v>2309933.42259981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834664.0000000001</v>
+        <v>834663.9999998948</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000001</v>
+        <v>785107.0000000006</v>
       </c>
       <c r="J3" t="n">
-        <v>513334.6543999999</v>
+        <v>601524.9999999553</v>
       </c>
       <c r="K3" t="n">
-        <v>834664.0000000009</v>
+        <v>834663.9999999562</v>
       </c>
       <c r="L3" t="n">
-        <v>601525.0000000009</v>
+        <v>601524.9999999796</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999973</v>
+        <v>1084703.999999854</v>
       </c>
       <c r="N4" t="n">
-        <v>847508.5699999962</v>
+        <v>870774.4560000008</v>
       </c>
       <c r="O4" t="n">
-        <v>1194819.99519999</v>
+        <v>1318518.999999745</v>
       </c>
       <c r="P4" t="n">
-        <v>1020295</v>
+        <v>1020294.99999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>692201.0192000003</v>
+        <v>781722.9999998881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>628537.9375999935</v>
+        <v>616463.7104000002</v>
       </c>
       <c r="S5" t="n">
-        <v>706754.9227999995</v>
+        <v>821926.8355999999</v>
       </c>
       <c r="T5" t="n">
-        <v>793886.0000000001</v>
+        <v>793885.999999887</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000019</v>
+        <v>608255.0000000002</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -521,10 +521,10 @@
         <v>4085710</v>
       </c>
       <c r="F2" t="n">
-        <v>3159065.983000001</v>
+        <v>3158222.644000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2422341.99999994</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999995</v>
+        <v>834664</v>
       </c>
       <c r="I3" t="n">
         <v>785107</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999991</v>
+        <v>601525</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999957</v>
+        <v>834664</v>
       </c>
       <c r="L3" t="n">
-        <v>601525</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999995</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>960330.5800000004</v>
+        <v>957700.0150000002</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999993</v>
+        <v>1318519</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999998</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999999941</v>
+        <v>781723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>744920.072</v>
+        <v>747435.5360000003</v>
       </c>
       <c r="S5" t="n">
-        <v>843174.8330000001</v>
+        <v>844007</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.9999999939</v>
+        <v>793886</v>
       </c>
       <c r="U5" t="n">
-        <v>608255</v>
+        <v>608255.0000000001</v>
       </c>
     </row>
   </sheetData>
@@ -850,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2363466.0598</v>
+        <v>2386869.5084</v>
       </c>
       <c r="C2" t="n">
-        <v>3271162.584000001</v>
+        <v>3271821.496800002</v>
       </c>
       <c r="D2" t="n">
-        <v>2889680.134</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>3891558.083999997</v>
+        <v>3915522.22</v>
       </c>
       <c r="F2" t="n">
-        <v>3063318.895200001</v>
+        <v>3061294.881600001</v>
       </c>
       <c r="G2" t="n">
-        <v>2292749.94579981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000003</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>859550.7120000009</v>
+        <v>781335.2460000003</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1302487.457200001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>716557.6816000006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>600364.7408000004</v>
+        <v>606401.8544000005</v>
       </c>
       <c r="S5" t="n">
-        <v>819263.9011999998</v>
+        <v>707531.6119999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>732854.9222000003</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000001</v>
+        <v>484309.4804000005</v>
       </c>
     </row>
   </sheetData>
@@ -1191,22 +1191,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2422027.1554</v>
+        <v>2422342</v>
       </c>
       <c r="C2" t="n">
-        <v>3355503.422400003</v>
+        <v>3356107.425800003</v>
       </c>
       <c r="D2" t="n">
-        <v>2986124.482</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>4074629.237999998</v>
+        <v>4085285.855999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3149676.808800001</v>
+        <v>3147652.795200001</v>
       </c>
       <c r="G2" t="n">
-        <v>2421932.86959981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999999655</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999707</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999627</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999813</v>
+        <v>601525.0000000008</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999929</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>949340.6640000012</v>
+        <v>938467.6620000004</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999912</v>
+        <v>1318519.000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.999999939</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999999151</v>
+        <v>781723.0000000003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>729156.4976000002</v>
+        <v>735193.6112000003</v>
       </c>
       <c r="S5" t="n">
-        <v>840567.3764000003</v>
+        <v>835352.4632</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999925</v>
+        <v>793559.6306000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>606888.7575000006</v>
       </c>
     </row>
   </sheetData>
@@ -1532,22 +1532,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2416359.9526</v>
+        <v>2421607.3626</v>
       </c>
       <c r="C2" t="n">
-        <v>3344960.817600002</v>
+        <v>3345619.730400002</v>
       </c>
       <c r="D2" t="n">
-        <v>2976791.158</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>4051884.515999997</v>
+        <v>4074947.345999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3138882.069600001</v>
+        <v>3136858.056000002</v>
       </c>
       <c r="G2" t="n">
-        <v>2412676.29429981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>938116.9200000012</v>
+        <v>918826.1100000005</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999753</v>
+        <v>1318186.985800001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>780373.4224000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>713057.5280000003</v>
+        <v>719094.6416000006</v>
       </c>
       <c r="S5" t="n">
-        <v>837904.4419999998</v>
+        <v>819374.8567999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>787684.9813999999</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>594483.2756000004</v>
       </c>
     </row>
   </sheetData>
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2408803.682200001</v>
+        <v>2417094.59</v>
       </c>
       <c r="C2" t="n">
-        <v>3334418.212800002</v>
+        <v>3335077.125600001</v>
       </c>
       <c r="D2" t="n">
-        <v>2964346.726</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>4028980.739999997</v>
+        <v>4052944.876</v>
       </c>
       <c r="F2" t="n">
-        <v>3128087.330400001</v>
+        <v>3126063.316800002</v>
       </c>
       <c r="G2" t="n">
-        <v>2395850.806599809</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>926893.176000001</v>
+        <v>899184.5580000002</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1316147.470000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>772083.1600000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>696958.5584000003</v>
+        <v>702995.6720000004</v>
       </c>
       <c r="S5" t="n">
-        <v>835241.5076</v>
+        <v>803397.2503999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>779852.1158000001</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>578744.1620000004</v>
       </c>
     </row>
   </sheetData>
@@ -2214,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2401247.4118</v>
+        <v>2412057.076399999</v>
       </c>
       <c r="C2" t="n">
-        <v>3323875.608000001</v>
+        <v>3324534.520800001</v>
       </c>
       <c r="D2" t="n">
-        <v>2951902.294</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>4006076.963999998</v>
+        <v>4030041.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3117292.591200002</v>
+        <v>3115268.577600002</v>
       </c>
       <c r="G2" t="n">
-        <v>2378667.32979981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2297,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2377,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>915669.4320000008</v>
+        <v>879543.0060000005</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1313870.801200001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>762828.9136000006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>680859.5888000003</v>
+        <v>686896.7024000006</v>
       </c>
       <c r="S5" t="n">
-        <v>832578.5731999999</v>
+        <v>787419.6439999997</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>772019.2502000002</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>563005.0484000004</v>
       </c>
     </row>
   </sheetData>
@@ -2555,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2393691.1414</v>
+        <v>2407019.5628</v>
       </c>
       <c r="C2" t="n">
-        <v>3313333.003200002</v>
+        <v>3313991.916000003</v>
       </c>
       <c r="D2" t="n">
-        <v>2939457.862</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>3983173.187999998</v>
+        <v>4007137.324</v>
       </c>
       <c r="F2" t="n">
-        <v>3106497.852000001</v>
+        <v>3104473.838400001</v>
       </c>
       <c r="G2" t="n">
-        <v>2361483.85299981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>904445.6880000009</v>
+        <v>859901.4540000005</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1311594.132400001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>753574.6672000005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>664760.6192000003</v>
+        <v>670797.7328000006</v>
       </c>
       <c r="S5" t="n">
-        <v>829915.6387999998</v>
+        <v>771442.0375999998</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>764186.3846000003</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>547265.9348000004</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2386134.871</v>
+        <v>2401982.0492</v>
       </c>
       <c r="C2" t="n">
-        <v>3302790.398400002</v>
+        <v>3303449.311200002</v>
       </c>
       <c r="D2" t="n">
-        <v>2927013.43</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>3960269.411999997</v>
+        <v>3984233.548</v>
       </c>
       <c r="F2" t="n">
-        <v>3095703.112800002</v>
+        <v>3093679.099200002</v>
       </c>
       <c r="G2" t="n">
-        <v>2344300.37619981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2979,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>893221.9440000007</v>
+        <v>840259.9020000004</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1309317.463600001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>744320.4208000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>648661.6496000004</v>
+        <v>654698.7632000005</v>
       </c>
       <c r="S5" t="n">
-        <v>827252.7044</v>
+        <v>755464.4311999999</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>756353.5190000003</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>531526.8212000002</v>
       </c>
     </row>
   </sheetData>
@@ -3237,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2378578.6006</v>
+        <v>2396944.5356</v>
       </c>
       <c r="C2" t="n">
-        <v>3292247.793600002</v>
+        <v>3292906.706400001</v>
       </c>
       <c r="D2" t="n">
-        <v>2914568.998</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>3937365.635999998</v>
+        <v>3961329.772</v>
       </c>
       <c r="F2" t="n">
-        <v>3084908.373600001</v>
+        <v>3082884.360000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2327116.89939981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>881998.2000000008</v>
+        <v>820618.3500000004</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1307040.794800001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>735066.1744000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>632562.6800000003</v>
+        <v>638599.7936000004</v>
       </c>
       <c r="S5" t="n">
-        <v>824589.7699999999</v>
+        <v>739486.8247999999</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>748520.6534000002</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>515787.7076000003</v>
       </c>
     </row>
   </sheetData>
@@ -3578,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2371022.3302</v>
+        <v>2391907.022</v>
       </c>
       <c r="C2" t="n">
-        <v>3281705.188800002</v>
+        <v>3282364.101600001</v>
       </c>
       <c r="D2" t="n">
-        <v>2902124.566</v>
+        <v>2986643.000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>3914461.859999996</v>
+        <v>3938425.995999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3074113.634400002</v>
+        <v>3072089.620800002</v>
       </c>
       <c r="G2" t="n">
-        <v>2309933.42259981</v>
+        <v>2422342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>834663.9999998948</v>
+        <v>834664.0000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>785107.0000000006</v>
+        <v>785107.0000000009</v>
       </c>
       <c r="J3" t="n">
-        <v>601524.9999999553</v>
+        <v>601525.0000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>834663.9999999562</v>
+        <v>834664.0000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>601524.9999999796</v>
+        <v>601525.0000000009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1084703.999999854</v>
+        <v>1084704</v>
       </c>
       <c r="N4" t="n">
-        <v>870774.4560000008</v>
+        <v>800976.7980000003</v>
       </c>
       <c r="O4" t="n">
-        <v>1318518.999999745</v>
+        <v>1304764.126000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1020294.99999986</v>
+        <v>1020295</v>
       </c>
       <c r="Q4" t="n">
-        <v>781722.9999998881</v>
+        <v>725811.9280000004</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>616463.7104000002</v>
+        <v>622500.8240000005</v>
       </c>
       <c r="S5" t="n">
-        <v>821926.8355999999</v>
+        <v>723509.2184</v>
       </c>
       <c r="T5" t="n">
-        <v>793885.999999887</v>
+        <v>740687.7878000002</v>
       </c>
       <c r="U5" t="n">
-        <v>608255.0000000002</v>
+        <v>500048.5940000003</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/meprojas_uc_cl/Documents/Escritorio/Opti/Mi proyecto/Modelo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2BB1D69C5B50DB7C0FD9311159D090F34F4BFB13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65E85FF-729A-4145-9153-6C6ECC402395}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11232" yWindow="252" windowWidth="11328" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Previo al proyecto</t>
+  </si>
+  <si>
+    <t>Necesidad total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,189 +387,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>2025</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2026</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2027</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1">
         <v>2028</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1">
         <v>2029</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1">
         <v>2030</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1">
         <v>2031</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1">
         <v>2032</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1">
         <v>2033</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2034</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>3072745.607333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3070062.179500001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3064669.582500001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3056694.151400001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3048481.045800001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3040267.940200001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3032054.834600001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3023841.729000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3015628.623400001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3007415.517800001</v>
+      <c r="B2">
+        <v>18439847</v>
+      </c>
+      <c r="C2">
+        <v>18431750.94560001</v>
+      </c>
+      <c r="D2">
+        <v>18408527.650400009</v>
+      </c>
+      <c r="E2">
+        <v>18366857.501600001</v>
+      </c>
+      <c r="F2">
+        <v>18317578.868000008</v>
+      </c>
+      <c r="G2">
+        <v>18268300.234400012</v>
+      </c>
+      <c r="H2">
+        <v>18219021.600800011</v>
+      </c>
+      <c r="I2">
+        <v>18169742.967200011</v>
+      </c>
+      <c r="J2">
+        <v>18120464.333600011</v>
+      </c>
+      <c r="K2">
+        <v>18071185.70000001</v>
+      </c>
+      <c r="L2">
+        <v>18021907.06640001</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>731497</v>
-      </c>
-      <c r="C3" t="n">
-        <v>731497.0000000003</v>
-      </c>
-      <c r="D3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="E3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>731497.0000000005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>731497.0000000005</v>
+      <c r="B3">
+        <v>3657485</v>
+      </c>
+      <c r="C3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="D3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="E3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="F3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="G3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="H3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="I3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="J3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="K3">
+        <v>3657485.0000000019</v>
+      </c>
+      <c r="L3">
+        <v>3657485.0000000019</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>1032588.203</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1028741.7324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1024477.10364</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1018482.8376</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1012248.34416</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1006013.85072</v>
-      </c>
-      <c r="H4" t="n">
-        <v>999779.3572800003</v>
-      </c>
-      <c r="I4" t="n">
-        <v>993544.8638400004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>987310.3704000004</v>
-      </c>
-      <c r="K4" t="n">
-        <v>981075.8769600003</v>
+      <c r="B4">
+        <v>5169079</v>
+      </c>
+      <c r="C4">
+        <v>5154347.8360000011</v>
+      </c>
+      <c r="D4">
+        <v>5134706.2840000018</v>
+      </c>
+      <c r="E4">
+        <v>5109299.2744000014</v>
+      </c>
+      <c r="F4">
+        <v>5078126.8072000016</v>
+      </c>
+      <c r="G4">
+        <v>5046954.3400000017</v>
+      </c>
+      <c r="H4">
+        <v>5015781.8728000019</v>
+      </c>
+      <c r="I4">
+        <v>4984609.4056000011</v>
+      </c>
+      <c r="J4">
+        <v>4953436.9384000013</v>
+      </c>
+      <c r="K4">
+        <v>4922264.4712000014</v>
+      </c>
+      <c r="L4">
+        <v>4891092.0040000007</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>748395.8840000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>742748.6156250002</v>
-      </c>
-      <c r="D5" t="n">
-        <v>730159.4388500002</v>
-      </c>
-      <c r="E5" t="n">
-        <v>716247.3000500002</v>
-      </c>
-      <c r="F5" t="n">
-        <v>702335.1612500002</v>
-      </c>
-      <c r="G5" t="n">
-        <v>688423.0224500002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>674510.8836500002</v>
-      </c>
-      <c r="I5" t="n">
-        <v>660598.7448500003</v>
-      </c>
-      <c r="J5" t="n">
-        <v>646686.6060500002</v>
-      </c>
-      <c r="K5" t="n">
-        <v>632774.4672500002</v>
+      <c r="B5">
+        <v>2996099</v>
+      </c>
+      <c r="C5">
+        <v>2990061.8864000011</v>
+      </c>
+      <c r="D5">
+        <v>2950780.722800001</v>
+      </c>
+      <c r="E5">
+        <v>2895132.1676000012</v>
+      </c>
+      <c r="F5">
+        <v>2839483.6124000009</v>
+      </c>
+      <c r="G5">
+        <v>2783835.057200002</v>
+      </c>
+      <c r="H5">
+        <v>2728186.5020000008</v>
+      </c>
+      <c r="I5">
+        <v>2672537.946800001</v>
+      </c>
+      <c r="J5">
+        <v>2616889.3916000011</v>
+      </c>
+      <c r="K5">
+        <v>2561240.8364000008</v>
+      </c>
+      <c r="L5">
+        <v>2505592.281200001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>30262510</v>
+      </c>
+      <c r="C6">
+        <v>30233645.668000009</v>
+      </c>
+      <c r="D6">
+        <v>30151499.657200009</v>
+      </c>
+      <c r="E6">
+        <v>30028773.94360001</v>
+      </c>
+      <c r="F6">
+        <v>29892674.287600022</v>
+      </c>
+      <c r="G6">
+        <v>29756574.631600011</v>
+      </c>
+      <c r="H6">
+        <v>29620474.975600019</v>
+      </c>
+      <c r="I6">
+        <v>29484375.319600008</v>
+      </c>
+      <c r="J6">
+        <v>29348275.663600009</v>
+      </c>
+      <c r="K6">
+        <v>29212176.007600009</v>
+      </c>
+      <c r="L6">
+        <v>29076076.35160001</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/meprojas_uc_cl/Documents/Escritorio/Opti/Mi proyecto/Modelo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2BB1D69C5B50DB7C0FD9311159D090F34F4BFB13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65E85FF-729A-4145-9153-6C6ECC402395}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="11232" yWindow="252" windowWidth="11328" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Previo al proyecto</t>
-  </si>
-  <si>
-    <t>Necesidad total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,241 +420,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Previo al proyecto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>18439847</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>18431750.94560001</v>
       </c>
-      <c r="D2">
-        <v>18408527.650400009</v>
-      </c>
-      <c r="E2">
-        <v>18366857.501600001</v>
-      </c>
-      <c r="F2">
-        <v>18317578.868000008</v>
-      </c>
-      <c r="G2">
-        <v>18268300.234400012</v>
-      </c>
-      <c r="H2">
-        <v>18219021.600800011</v>
-      </c>
-      <c r="I2">
-        <v>18169742.967200011</v>
-      </c>
-      <c r="J2">
-        <v>18120464.333600011</v>
-      </c>
-      <c r="K2">
+      <c r="D2" t="n">
+        <v>18408527.65040001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18366857.5016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18317578.86800001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18268300.23440001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18219021.60080001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18169742.96720001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18120464.33360001</v>
+      </c>
+      <c r="K2" t="n">
         <v>18071185.70000001</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>18021907.06640001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3657485</v>
       </c>
-      <c r="C3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="D3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="E3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="F3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="G3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="H3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="I3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="J3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="K3">
-        <v>3657485.0000000019</v>
-      </c>
-      <c r="L3">
-        <v>3657485.0000000019</v>
+      <c r="C3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3657485.000000002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3657485.000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5169079</v>
       </c>
-      <c r="C4">
-        <v>5154347.8360000011</v>
-      </c>
-      <c r="D4">
-        <v>5134706.2840000018</v>
-      </c>
-      <c r="E4">
-        <v>5109299.2744000014</v>
-      </c>
-      <c r="F4">
-        <v>5078126.8072000016</v>
-      </c>
-      <c r="G4">
-        <v>5046954.3400000017</v>
-      </c>
-      <c r="H4">
-        <v>5015781.8728000019</v>
-      </c>
-      <c r="I4">
-        <v>4984609.4056000011</v>
-      </c>
-      <c r="J4">
-        <v>4953436.9384000013</v>
-      </c>
-      <c r="K4">
-        <v>4922264.4712000014</v>
-      </c>
-      <c r="L4">
-        <v>4891092.0040000007</v>
+      <c r="C4" t="n">
+        <v>5154347.836000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5134706.284000002</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5109299.274400001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5078126.807200002</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5046954.340000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5015781.872800002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4984609.405600001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4953436.938400001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4922264.471200001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4891092.004000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2996099</v>
       </c>
-      <c r="C5">
-        <v>2990061.8864000011</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>2990061.886400001</v>
+      </c>
+      <c r="D5" t="n">
         <v>2950780.722800001</v>
       </c>
-      <c r="E5">
-        <v>2895132.1676000012</v>
-      </c>
-      <c r="F5">
-        <v>2839483.6124000009</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="n">
+        <v>2895132.167600001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2839483.612400001</v>
+      </c>
+      <c r="G5" t="n">
         <v>2783835.057200002</v>
       </c>
-      <c r="H5">
-        <v>2728186.5020000008</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>2728186.502000001</v>
+      </c>
+      <c r="I5" t="n">
         <v>2672537.946800001</v>
       </c>
-      <c r="J5">
-        <v>2616889.3916000011</v>
-      </c>
-      <c r="K5">
-        <v>2561240.8364000008</v>
-      </c>
-      <c r="L5">
+      <c r="J5" t="n">
+        <v>2616889.391600001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2561240.836400001</v>
+      </c>
+      <c r="L5" t="n">
         <v>2505592.281200001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Necesidad total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>30262510</v>
       </c>
-      <c r="C6">
-        <v>30233645.668000009</v>
-      </c>
-      <c r="D6">
-        <v>30151499.657200009</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="n">
+        <v>30233645.66800001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30151499.65720001</v>
+      </c>
+      <c r="E6" t="n">
         <v>30028773.94360001</v>
       </c>
-      <c r="F6">
-        <v>29892674.287600022</v>
-      </c>
-      <c r="G6">
-        <v>29756574.631600011</v>
-      </c>
-      <c r="H6">
-        <v>29620474.975600019</v>
-      </c>
-      <c r="I6">
-        <v>29484375.319600008</v>
-      </c>
-      <c r="J6">
-        <v>29348275.663600009</v>
-      </c>
-      <c r="K6">
-        <v>29212176.007600009</v>
-      </c>
-      <c r="L6">
+      <c r="F6" t="n">
+        <v>29892674.28760002</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29756574.63160001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29620474.97560002</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29484375.31960001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29348275.66360001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29212176.00760001</v>
+      </c>
+      <c r="L6" t="n">
         <v>29076076.35160001</v>
       </c>
     </row>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/meprojas_uc_cl/Documents/Escritorio/Opti/Mi proyecto/Modelo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5B70DC4A47FA281159A470755F93FB00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0136607E-BA76-4651-9388-BE99151E0A92}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Previo al proyecto</t>
+  </si>
+  <si>
+    <t>Necesidad total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,246 +387,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Previo al proyecto</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>2025</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2026</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2027</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>2028</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>2029</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>2030</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>2031</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>2032</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>2033</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2034</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>18439847</v>
       </c>
-      <c r="C2" t="n">
-        <v>18431750.94560001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18408527.65040001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18366857.5016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18317578.86800001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18268300.23440001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18219021.60080001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18169742.96720001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18120464.33360001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18071185.70000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18021907.06640001</v>
+      <c r="C2">
+        <v>18431750.945599999</v>
+      </c>
+      <c r="D2">
+        <v>18408527.65039999</v>
+      </c>
+      <c r="E2">
+        <v>18365778.03439999</v>
+      </c>
+      <c r="F2">
+        <v>18314340.46639999</v>
+      </c>
+      <c r="G2">
+        <v>18262902.89839999</v>
+      </c>
+      <c r="H2">
+        <v>18211465.33039999</v>
+      </c>
+      <c r="I2">
+        <v>18160027.76239999</v>
+      </c>
+      <c r="J2">
+        <v>18108590.19439999</v>
+      </c>
+      <c r="K2">
+        <v>18057152.62639999</v>
+      </c>
+      <c r="L2">
+        <v>18005715.05839999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3657485</v>
       </c>
-      <c r="C3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3657485.000000002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3657485.000000002</v>
+      <c r="C3">
+        <v>3657484.9999998328</v>
+      </c>
+      <c r="D3">
+        <v>3657484.9999997481</v>
+      </c>
+      <c r="E3">
+        <v>3653979.2767997482</v>
+      </c>
+      <c r="F3">
+        <v>3646967.830399747</v>
+      </c>
+      <c r="G3">
+        <v>3639956.3839997472</v>
+      </c>
+      <c r="H3">
+        <v>3632944.937599747</v>
+      </c>
+      <c r="I3">
+        <v>3625933.4911997481</v>
+      </c>
+      <c r="J3">
+        <v>3618922.0447997479</v>
+      </c>
+      <c r="K3">
+        <v>3611910.5983997472</v>
+      </c>
+      <c r="L3">
+        <v>3604899.1519997469</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5169079</v>
       </c>
-      <c r="C4" t="n">
-        <v>5154347.836000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5134706.284000002</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5109299.274400001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5078126.807200002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5046954.340000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5015781.872800002</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4984609.405600001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4953436.938400001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4922264.471200001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4891092.004000001</v>
+      <c r="C4">
+        <v>5154347.8360000001</v>
+      </c>
+      <c r="D4">
+        <v>5134706.2840000009</v>
+      </c>
+      <c r="E4">
+        <v>5113907.9512000009</v>
+      </c>
+      <c r="F4">
+        <v>5091952.8376000002</v>
+      </c>
+      <c r="G4">
+        <v>5069997.7240000013</v>
+      </c>
+      <c r="H4">
+        <v>5048042.6104000024</v>
+      </c>
+      <c r="I4">
+        <v>5026087.4968000008</v>
+      </c>
+      <c r="J4">
+        <v>5004132.383200001</v>
+      </c>
+      <c r="K4">
+        <v>4982177.2696000012</v>
+      </c>
+      <c r="L4">
+        <v>4960222.1560000004</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2996099</v>
       </c>
-      <c r="C5" t="n">
-        <v>2990061.886400001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2950780.722800001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2895132.167600001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2839483.612400001</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>2990061.8864000021</v>
+      </c>
+      <c r="D5">
+        <v>2950780.722800002</v>
+      </c>
+      <c r="E5">
+        <v>2895132.1676000021</v>
+      </c>
+      <c r="F5">
+        <v>2839483.6124000009</v>
+      </c>
+      <c r="G5">
         <v>2783835.057200002</v>
       </c>
-      <c r="H5" t="n">
-        <v>2728186.502000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2672537.946800001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2616889.391600001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2561240.836400001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2505592.281200001</v>
+      <c r="H5">
+        <v>2728186.5020000022</v>
+      </c>
+      <c r="I5">
+        <v>2672537.9468000019</v>
+      </c>
+      <c r="J5">
+        <v>2616889.3916000021</v>
+      </c>
+      <c r="K5">
+        <v>2561240.8364000018</v>
+      </c>
+      <c r="L5">
+        <v>2505592.2811999759</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Necesidad total</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>30262510</v>
       </c>
-      <c r="C6" t="n">
-        <v>30233645.66800001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30151499.65720001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30028773.94360001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29892674.28760002</v>
-      </c>
-      <c r="G6" t="n">
-        <v>29756574.63160001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29620474.97560002</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29484375.31960001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29348275.66360001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29212176.00760001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>29076076.35160001</v>
+      <c r="C6">
+        <v>30233645.66799983</v>
+      </c>
+      <c r="D6">
+        <v>30151499.65719974</v>
+      </c>
+      <c r="E6">
+        <v>30028797.429999739</v>
+      </c>
+      <c r="F6">
+        <v>29892744.746799741</v>
+      </c>
+      <c r="G6">
+        <v>29756692.063599739</v>
+      </c>
+      <c r="H6">
+        <v>29620639.380399741</v>
+      </c>
+      <c r="I6">
+        <v>29484586.69719974</v>
+      </c>
+      <c r="J6">
+        <v>29348534.013999749</v>
+      </c>
+      <c r="K6">
+        <v>29212481.33079974</v>
+      </c>
+      <c r="L6">
+        <v>29076428.647599719</v>
       </c>
     </row>
   </sheetData>

--- a/PN_anualmente.xlsx
+++ b/PN_anualmente.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/meprojas_uc_cl/Documents/Escritorio/Opti/Mi proyecto/Modelo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5B70DC4A47FA281159A470755F93FB00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0136607E-BA76-4651-9388-BE99151E0A92}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Previo al proyecto</t>
-  </si>
-  <si>
-    <t>Necesidad total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,240 +420,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Previo al proyecto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>18439847</v>
       </c>
-      <c r="C2">
-        <v>18431750.945599999</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>18431750.9456</v>
+      </c>
+      <c r="D2" t="n">
         <v>18408527.65039999</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>18365778.03439999</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>18314340.46639999</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>18262902.89839999</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18211465.33039999</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>18160027.76239999</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>18108590.19439999</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>18057152.62639999</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>18005715.05839999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3657485</v>
       </c>
-      <c r="C3">
-        <v>3657484.9999998328</v>
-      </c>
-      <c r="D3">
-        <v>3657484.9999997481</v>
-      </c>
-      <c r="E3">
-        <v>3653979.2767997482</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>3657484.999999833</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3657484.999999748</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3653979.276799748</v>
+      </c>
+      <c r="F3" t="n">
         <v>3646967.830399747</v>
       </c>
-      <c r="G3">
-        <v>3639956.3839997472</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>3639956.383999747</v>
+      </c>
+      <c r="H3" t="n">
         <v>3632944.937599747</v>
       </c>
-      <c r="I3">
-        <v>3625933.4911997481</v>
-      </c>
-      <c r="J3">
-        <v>3618922.0447997479</v>
-      </c>
-      <c r="K3">
-        <v>3611910.5983997472</v>
-      </c>
-      <c r="L3">
-        <v>3604899.1519997469</v>
+      <c r="I3" t="n">
+        <v>3625933.491199748</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3618922.044799748</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3611910.598399747</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3604899.151999747</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5169079</v>
       </c>
-      <c r="C4">
-        <v>5154347.8360000001</v>
-      </c>
-      <c r="D4">
-        <v>5134706.2840000009</v>
-      </c>
-      <c r="E4">
-        <v>5113907.9512000009</v>
-      </c>
-      <c r="F4">
-        <v>5091952.8376000002</v>
-      </c>
-      <c r="G4">
-        <v>5069997.7240000013</v>
-      </c>
-      <c r="H4">
-        <v>5048042.6104000024</v>
-      </c>
-      <c r="I4">
-        <v>5026087.4968000008</v>
-      </c>
-      <c r="J4">
+      <c r="C4" t="n">
+        <v>5154347.836</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5134706.284000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5113907.951200001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5091952.8376</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5069997.724000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5048042.610400002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5026087.496800001</v>
+      </c>
+      <c r="J4" t="n">
         <v>5004132.383200001</v>
       </c>
-      <c r="K4">
-        <v>4982177.2696000012</v>
-      </c>
-      <c r="L4">
-        <v>4960222.1560000004</v>
+      <c r="K4" t="n">
+        <v>4982177.269600001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4960222.156</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2996099</v>
       </c>
-      <c r="C5">
-        <v>2990061.8864000021</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>2990061.886400002</v>
+      </c>
+      <c r="D5" t="n">
         <v>2950780.722800002</v>
       </c>
-      <c r="E5">
-        <v>2895132.1676000021</v>
-      </c>
-      <c r="F5">
-        <v>2839483.6124000009</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="n">
+        <v>2895132.167600002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2839483.612400001</v>
+      </c>
+      <c r="G5" t="n">
         <v>2783835.057200002</v>
       </c>
-      <c r="H5">
-        <v>2728186.5020000022</v>
-      </c>
-      <c r="I5">
-        <v>2672537.9468000019</v>
-      </c>
-      <c r="J5">
-        <v>2616889.3916000021</v>
-      </c>
-      <c r="K5">
-        <v>2561240.8364000018</v>
-      </c>
-      <c r="L5">
-        <v>2505592.2811999759</v>
+      <c r="H5" t="n">
+        <v>2728186.502000002</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2672537.946800002</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2616889.391600002</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2561240.836400002</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2505592.281199976</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Necesidad total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>30262510</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>30233645.66799983</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>30151499.65719974</v>
       </c>
-      <c r="E6">
-        <v>30028797.429999739</v>
-      </c>
-      <c r="F6">
-        <v>29892744.746799741</v>
-      </c>
-      <c r="G6">
-        <v>29756692.063599739</v>
-      </c>
-      <c r="H6">
-        <v>29620639.380399741</v>
-      </c>
-      <c r="I6">
+      <c r="E6" t="n">
+        <v>30028797.42999974</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29892744.74679974</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29756692.06359974</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29620639.38039974</v>
+      </c>
+      <c r="I6" t="n">
         <v>29484586.69719974</v>
       </c>
-      <c r="J6">
-        <v>29348534.013999749</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="n">
+        <v>29348534.01399975</v>
+      </c>
+      <c r="K6" t="n">
         <v>29212481.33079974</v>
       </c>
-      <c r="L6">
-        <v>29076428.647599719</v>
+      <c r="L6" t="n">
+        <v>29076428.64759972</v>
       </c>
     </row>
   </sheetData>
